--- a/KokoroUpTime/bin/Debug/netcoreapp3.1/Datas/default.xlsx
+++ b/KokoroUpTime/bin/Debug/netcoreapp3.1/Datas/default.xlsx
@@ -7,7 +7,19 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="まとめ" sheetId="1" r:id="rId1"/>
+    <sheet name="第1回" sheetId="2" r:id="rId2"/>
+    <sheet name="第2回" sheetId="3" r:id="rId3"/>
+    <sheet name="第3回" sheetId="4" r:id="rId4"/>
+    <sheet name="第4回" sheetId="5" r:id="rId5"/>
+    <sheet name="第5回" sheetId="6" r:id="rId6"/>
+    <sheet name="第6回" sheetId="7" r:id="rId7"/>
+    <sheet name="第7回" sheetId="8" r:id="rId8"/>
+    <sheet name="第8回" sheetId="9" r:id="rId9"/>
+    <sheet name="第9回" sheetId="10" r:id="rId10"/>
+    <sheet name="第10回" sheetId="11" r:id="rId11"/>
+    <sheet name="第11回" sheetId="12" r:id="rId12"/>
+    <sheet name="第12回" sheetId="13" r:id="rId13"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -18,13 +30,84 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+  <si>
+    <t>基本情報</t>
+  </si>
+  <si>
+    <t>プレイ名</t>
+  </si>
+  <si>
+    <t>本名</t>
+  </si>
+  <si>
+    <t>学年</t>
+  </si>
+  <si>
+    <t>アクセス日</t>
+  </si>
+  <si>
+    <t>各回の達成率</t>
+  </si>
+  <si>
+    <t>シーン数</t>
+  </si>
+  <si>
+    <t>プレイ中のシーン数</t>
+  </si>
+  <si>
+    <t>プレイ中のシーン名</t>
+  </si>
+  <si>
+    <t>達成率</t>
+  </si>
+  <si>
+    <t>第1回</t>
+  </si>
+  <si>
+    <t>第2回</t>
+  </si>
+  <si>
+    <t>第3回</t>
+  </si>
+  <si>
+    <t>第4回</t>
+  </si>
+  <si>
+    <t>第5回</t>
+  </si>
+  <si>
+    <t>第6回</t>
+  </si>
+  <si>
+    <t>第7回</t>
+  </si>
+  <si>
+    <t>第8回</t>
+  </si>
+  <si>
+    <t>第9回</t>
+  </si>
+  <si>
+    <t>第10回</t>
+  </si>
+  <si>
+    <t>第11回</t>
+  </si>
+  <si>
+    <t>第12回</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Yu Gothic"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -37,7 +120,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -45,15 +128,37 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+  <cellXfs count="6">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -69,7 +174,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -114,7 +219,7 @@
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic Light"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
@@ -149,7 +254,7 @@
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
@@ -331,12 +436,382 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <dimension ref="A1:E20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="19.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.125" style="1" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A7" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="5" t="e">
+        <f>C9/B9</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A11" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A12" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A13" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A14" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A15" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A16" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A17" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A18" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A19" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A20" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A7:E7"/>
+  </mergeCells>
+  <phoneticPr fontId="0"/>
+  <conditionalFormatting sqref="E9:E20">
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{E7BD8DED-5300-4A26-92CE-2A83E79B8539}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{E7BD8DED-5300-4A26-92CE-2A83E79B8539}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF638EC6"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>E9:E20</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData/>
+  <phoneticPr fontId="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData/>
+  <phoneticPr fontId="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData/>
+  <phoneticPr fontId="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData/>
+  <phoneticPr fontId="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData/>
+  <phoneticPr fontId="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData/>
+  <phoneticPr fontId="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData/>
+  <phoneticPr fontId="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData/>
+  <phoneticPr fontId="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData/>
+  <phoneticPr fontId="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData/>
+  <phoneticPr fontId="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData/>
+  <phoneticPr fontId="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData/>
+  <phoneticPr fontId="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/KokoroUpTime/bin/Debug/netcoreapp3.1/Datas/default.xlsx
+++ b/KokoroUpTime/bin/Debug/netcoreapp3.1/Datas/default.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14130" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="まとめ" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>基本情報</t>
   </si>
@@ -97,6 +97,109 @@
   </si>
   <si>
     <t>第12回</t>
+  </si>
+  <si>
+    <t>チャレンジタイムパート②</t>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>きもちの種類</t>
+    <rPh sb="4" eb="6">
+      <t>シュルイ</t>
+    </rPh>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>きもちのおおきさ</t>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>かんたんにできるか　</t>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>チャレンジタイムパート①</t>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>楽しいことリスト</t>
+    <rPh sb="0" eb="1">
+      <t>タノ</t>
+    </rPh>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>公園でおひるねする</t>
+    <rPh sb="0" eb="2">
+      <t>コウエン</t>
+    </rPh>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>ゆったり</t>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>△</t>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>おいしいものを食べる</t>
+    <rPh sb="7" eb="8">
+      <t>タ</t>
+    </rPh>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>うれしい</t>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>全部のテストで100点を取る</t>
+    <rPh sb="0" eb="2">
+      <t>ゼンブ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>テン</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ト</t>
+    </rPh>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>休み時間に友達とおしゃべりする</t>
+    <rPh sb="0" eb="1">
+      <t>ヤス</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>トモダチ</t>
+    </rPh>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>うれしい</t>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>楽しい</t>
+    <rPh sb="0" eb="1">
+      <t>タノ</t>
+    </rPh>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>自分のいいきもちになる出来事</t>
+    <rPh sb="0" eb="2">
+      <t>ジブン</t>
+    </rPh>
+    <rPh sb="11" eb="14">
+      <t>デキゴト</t>
+    </rPh>
+    <phoneticPr fontId="0"/>
   </si>
 </sst>
 </file>
@@ -147,15 +250,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -438,7 +547,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
@@ -451,10 +560,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4"/>
+      <c r="B1" s="5"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
@@ -481,13 +590,13 @@
       <c r="B5" s="2"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A8" s="2"/>
@@ -511,7 +620,7 @@
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
-      <c r="E9" s="5" t="e">
+      <c r="E9" s="4" t="e">
         <f>C9/B9</f>
         <v>#DIV/0!</v>
       </c>
@@ -726,6 +835,105 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:F8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="53" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="31.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A4" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="C5" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="6">
+        <v>20</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="C6" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="C7" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="C8" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -737,7 +945,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
@@ -747,10 +955,11 @@
   <sheetData/>
   <phoneticPr fontId="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
@@ -760,11 +969,10 @@
   <sheetData/>
   <phoneticPr fontId="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
@@ -777,7 +985,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
@@ -790,7 +998,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
@@ -801,17 +1009,4 @@
   <phoneticPr fontId="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
-  <sheetData/>
-  <phoneticPr fontId="0"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>